--- a/labturisme_maig_2021/documents/LABTurisme-ocupacio-Hotel-maig-2021.xlsx
+++ b/labturisme_maig_2021/documents/LABTurisme-ocupacio-Hotel-maig-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Storydata\LABTurisme\maig\labturisme_abril_2021\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Storydata\LABTurisme\maig\labturisme_maig_2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FBF7A5-CFF3-4C5F-81E7-5E178A54C349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED50F21-8687-48EC-8372-49E2D4A4E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>en %</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Hotels_21</t>
-  </si>
-  <si>
-    <t>:</t>
   </si>
   <si>
     <t>Hotels_19</t>
@@ -452,7 +449,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -488,7 +485,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,8 +551,8 @@
       <c r="B8" s="9">
         <v>25.939008325742488</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
+      <c r="C8" s="7">
+        <v>15.3</v>
       </c>
       <c r="D8" s="7">
         <v>55.436999999999998</v>
